--- a/Team-Data/2014-15/1-23-2014-15.xlsx
+++ b/Team-Data/2014-15/1-23-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,31 +733,31 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J2" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K2" t="n">
         <v>0.471</v>
       </c>
       <c r="L2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>25.1</v>
@@ -699,28 +766,28 @@
         <v>0.388</v>
       </c>
       <c r="O2" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P2" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="R2" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S2" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T2" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U2" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="V2" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
         <v>9</v>
@@ -732,19 +799,19 @@
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>103.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -765,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL2" t="n">
         <v>5</v>
@@ -780,40 +847,40 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.366</v>
+        <v>0.35</v>
       </c>
       <c r="H3" t="n">
         <v>48.6</v>
@@ -866,28 +933,28 @@
         <v>39.7</v>
       </c>
       <c r="J3" t="n">
-        <v>87.8</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L3" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.329</v>
+        <v>0.326</v>
       </c>
       <c r="O3" t="n">
         <v>14.8</v>
       </c>
       <c r="P3" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.753</v>
+        <v>0.758</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
@@ -899,7 +966,7 @@
         <v>43.4</v>
       </c>
       <c r="U3" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="V3" t="n">
         <v>14.7</v>
@@ -908,19 +975,19 @@
         <v>8.1</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC3" t="n">
         <v>-2</v>
@@ -929,10 +996,10 @@
         <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
         <v>23</v>
@@ -962,19 +1029,19 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR3" t="n">
         <v>16</v>
       </c>
-      <c r="AR3" t="n">
-        <v>18</v>
-      </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -986,13 +1053,13 @@
         <v>10</v>
       </c>
       <c r="AX3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY3" t="n">
         <v>24</v>
       </c>
-      <c r="AY3" t="n">
-        <v>25</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1001,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-3</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>8</v>
@@ -1135,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN4" t="n">
         <v>28</v>
@@ -1144,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
@@ -1159,16 +1226,16 @@
         <v>21</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
         <v>15</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY4" t="n">
         <v>11</v>
@@ -1177,7 +1244,7 @@
         <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>0.409</v>
+        <v>0.419</v>
       </c>
       <c r="H5" t="n">
         <v>48.8</v>
@@ -1230,19 +1297,19 @@
         <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.309</v>
+        <v>0.313</v>
       </c>
       <c r="O5" t="n">
         <v>17.3</v>
@@ -1251,19 +1318,19 @@
         <v>23.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.733</v>
+        <v>0.735</v>
       </c>
       <c r="R5" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S5" t="n">
         <v>33.5</v>
       </c>
       <c r="T5" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U5" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
         <v>11.8</v>
@@ -1278,28 +1345,28 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1323,16 +1390,16 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
@@ -1353,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1365,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -1394,52 +1461,52 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.644</v>
+        <v>0.636</v>
       </c>
       <c r="H6" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I6" t="n">
         <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P6" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.782</v>
+        <v>0.781</v>
       </c>
       <c r="R6" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S6" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T6" t="n">
         <v>45.3</v>
@@ -1448,7 +1515,7 @@
         <v>21.6</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
         <v>6.3</v>
@@ -1457,13 +1524,13 @@
         <v>6.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
         <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AB6" t="n">
         <v>102.2</v>
@@ -1472,10 +1539,10 @@
         <v>2.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1490,10 +1557,10 @@
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK6" t="n">
         <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>18</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,13 +1581,13 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.545</v>
+        <v>0.535</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J7" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.344</v>
       </c>
       <c r="O7" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P7" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
         <v>11.3</v>
       </c>
       <c r="S7" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="T7" t="n">
-        <v>41.9</v>
+        <v>41.6</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V7" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W7" t="n">
         <v>7.3</v>
@@ -1648,13 +1715,13 @@
         <v>21.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.6</v>
+        <v>101</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1666,10 +1733,10 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
@@ -1678,31 +1745,31 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU7" t="n">
         <v>12</v>
@@ -1711,10 +1778,10 @@
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY7" t="n">
         <v>17</v>
@@ -1726,10 +1793,10 @@
         <v>8</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1840,7 @@
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="J8" t="n">
         <v>86.3</v>
@@ -1785,10 +1852,10 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O8" t="n">
         <v>17.3</v>
@@ -1797,37 +1864,37 @@
         <v>22.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.763</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
         <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
         <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y8" t="n">
         <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB8" t="n">
         <v>108.1</v>
@@ -1836,7 +1903,7 @@
         <v>6.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
@@ -1857,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1866,13 +1933,13 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>12</v>
@@ -1896,10 +1963,10 @@
         <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ8" t="n">
         <v>15</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -1940,19 +2007,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>0.419</v>
+        <v>0.429</v>
       </c>
       <c r="H9" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I9" t="n">
         <v>37.6</v>
@@ -1961,16 +2028,16 @@
         <v>86.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L9" t="n">
         <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.32</v>
+        <v>0.321</v>
       </c>
       <c r="O9" t="n">
         <v>18.9</v>
@@ -1982,52 +2049,52 @@
         <v>0.736</v>
       </c>
       <c r="R9" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S9" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T9" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U9" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V9" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
         <v>5.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="AC9" t="n">
         <v>-2.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
@@ -2036,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>14</v>
@@ -2048,7 +2115,7 @@
         <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>4</v>
@@ -2057,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>2</v>
@@ -2066,22 +2133,22 @@
         <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
       </c>
       <c r="AV9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2093,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="BC9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
@@ -2224,7 +2291,7 @@
         <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM10" t="n">
         <v>8</v>
@@ -2251,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="AU10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2263,7 +2330,7 @@
         <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>8</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.854</v>
+        <v>0.85</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="J11" t="n">
-        <v>86</v>
+        <v>85.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.487</v>
       </c>
       <c r="L11" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="M11" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.391</v>
+        <v>0.39</v>
       </c>
       <c r="O11" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P11" t="n">
         <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R11" t="n">
         <v>10.1</v>
@@ -2355,31 +2422,31 @@
         <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W11" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z11" t="n">
         <v>19.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>111.1</v>
+        <v>110.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="AD11" t="n">
         <v>29</v>
@@ -2400,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>22</v>
@@ -2427,7 +2494,7 @@
         <v>24</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>8</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
@@ -2448,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -2501,43 +2568,43 @@
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.442</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.718</v>
+        <v>0.716</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V12" t="n">
         <v>17.5</v>
@@ -2546,25 +2613,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y12" t="n">
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,16 +2643,16 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU12" t="n">
         <v>17</v>
@@ -2624,22 +2691,22 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>8</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -2668,85 +2735,85 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H13" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K13" t="n">
         <v>0.427</v>
       </c>
       <c r="L13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M13" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="N13" t="n">
-        <v>0.323</v>
+        <v>0.325</v>
       </c>
       <c r="O13" t="n">
         <v>16.3</v>
       </c>
       <c r="P13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.757</v>
+        <v>0.754</v>
       </c>
       <c r="R13" t="n">
         <v>11</v>
       </c>
       <c r="S13" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T13" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
         <v>4.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>-2.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
@@ -2761,10 +2828,10 @@
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2773,19 +2840,19 @@
         <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
         <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR13" t="n">
         <v>14</v>
@@ -2794,13 +2861,13 @@
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2812,16 +2879,16 @@
         <v>18</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB13" t="n">
         <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2946,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2961,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="AO14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP14" t="n">
         <v>6</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>5</v>
       </c>
       <c r="AQ14" t="n">
         <v>18</v>
@@ -2976,7 +3043,7 @@
         <v>16</v>
       </c>
       <c r="AT14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2988,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -3047,40 +3114,40 @@
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M15" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.6</v>
       </c>
       <c r="P15" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.743</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U15" t="n">
         <v>20.6</v>
@@ -3089,7 +3156,7 @@
         <v>13</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
         <v>4.5</v>
@@ -3098,19 +3165,19 @@
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>21</v>
@@ -3140,10 +3207,10 @@
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
         <v>7</v>
@@ -3155,19 +3222,19 @@
         <v>11</v>
       </c>
       <c r="AS15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>6</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX15" t="n">
         <v>19</v>
@@ -3176,10 +3243,10 @@
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3310,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,16 +3389,16 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>7</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>23</v>
@@ -3355,16 +3422,16 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
         <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.442</v>
+        <v>0.429</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3417,34 +3484,34 @@
         <v>74.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L17" t="n">
         <v>7.1</v>
       </c>
       <c r="M17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.739</v>
       </c>
       <c r="R17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="U17" t="n">
         <v>20</v>
@@ -3456,25 +3523,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y17" t="n">
         <v>4.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA17" t="n">
         <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,25 +3562,25 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,25 +3595,25 @@
         <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC17" t="n">
         <v>25</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -3689,22 +3756,22 @@
         <v>9</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS18" t="n">
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3722,16 +3789,16 @@
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -3760,64 +3827,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.167</v>
+        <v>0.171</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J19" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K19" t="n">
         <v>0.435</v>
       </c>
       <c r="L19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M19" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.336</v>
+        <v>0.338</v>
       </c>
       <c r="O19" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P19" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q19" t="n">
         <v>0.743</v>
       </c>
       <c r="R19" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S19" t="n">
         <v>28.6</v>
       </c>
       <c r="T19" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U19" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="X19" t="n">
         <v>4.2</v>
@@ -3826,34 +3893,34 @@
         <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.5</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>-9.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
         <v>28</v>
       </c>
       <c r="AG19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
         <v>8</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
         <v>9</v>
@@ -3892,7 +3959,7 @@
         <v>10</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>7</v>
@@ -3901,10 +3968,10 @@
         <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -3960,115 +4027,115 @@
         <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.341</v>
+        <v>0.337</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.762</v>
+        <v>0.754</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W20" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>19.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
         <v>18</v>
       </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
         <v>18</v>
@@ -4083,10 +4150,10 @@
         <v>6</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>36</v>
       </c>
       <c r="G21" t="n">
-        <v>0.182</v>
+        <v>0.163</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J21" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M21" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O21" t="n">
         <v>13.7</v>
       </c>
       <c r="P21" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="T21" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
         <v>14.8</v>
@@ -4190,40 +4257,40 @@
         <v>3.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA21" t="n">
         <v>18.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.3</v>
+        <v>92.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8</v>
+        <v>-8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
         <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
         <v>23</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>15</v>
@@ -4232,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4253,13 +4320,13 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV21" t="n">
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX21" t="n">
         <v>28</v>
@@ -4274,7 +4341,7 @@
         <v>28</v>
       </c>
       <c r="BB21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" t="n">
         <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.512</v>
+        <v>0.524</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
@@ -4324,37 +4391,37 @@
         <v>37.6</v>
       </c>
       <c r="J22" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.322</v>
+        <v>0.32</v>
       </c>
       <c r="O22" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P22" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R22" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="T22" t="n">
-        <v>46.6</v>
+        <v>46.9</v>
       </c>
       <c r="U22" t="n">
         <v>20.2</v>
@@ -4363,7 +4430,7 @@
         <v>15.1</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X22" t="n">
         <v>5.8</v>
@@ -4372,25 +4439,25 @@
         <v>4.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
         <v>14</v>
@@ -4402,7 +4469,7 @@
         <v>14</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>21</v>
@@ -4414,22 +4481,22 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
         <v>12</v>
       </c>
       <c r="AP22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -4438,19 +4505,19 @@
         <v>26</v>
       </c>
       <c r="AV22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW22" t="n">
         <v>22</v>
       </c>
-      <c r="AW22" t="n">
-        <v>20</v>
-      </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA22" t="n">
         <v>17</v>
@@ -4459,7 +4526,7 @@
         <v>17</v>
       </c>
       <c r="BC22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -4503,67 +4570,67 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="J23" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
         <v>19.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.732</v>
+        <v>0.736</v>
       </c>
       <c r="R23" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
         <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,31 +4639,31 @@
         <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4605,40 +4672,40 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>21</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>20</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.186</v>
+        <v>0.19</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4694,10 +4761,10 @@
         <v>0.409</v>
       </c>
       <c r="L24" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="N24" t="n">
         <v>0.297</v>
@@ -4706,19 +4773,19 @@
         <v>16.7</v>
       </c>
       <c r="P24" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S24" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T24" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U24" t="n">
         <v>19.9</v>
@@ -4736,19 +4803,19 @@
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>90</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-12.4</v>
+        <v>-12.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4784,19 +4851,19 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
         <v>29</v>
@@ -4811,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="n">
         <v>26</v>
       </c>
       <c r="F25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.578</v>
+        <v>0.591</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
@@ -4870,16 +4937,16 @@
         <v>40.3</v>
       </c>
       <c r="J25" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L25" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="N25" t="n">
         <v>0.361</v>
@@ -4891,7 +4958,7 @@
         <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="R25" t="n">
         <v>10.7</v>
@@ -4906,10 +4973,10 @@
         <v>20.8</v>
       </c>
       <c r="V25" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4927,10 +4994,10 @@
         <v>107.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4948,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4963,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -4972,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="AR25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
@@ -4984,19 +5051,19 @@
         <v>20</v>
       </c>
       <c r="AV25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>6</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5127,13 +5194,13 @@
         <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
         <v>2</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
@@ -5142,13 +5209,13 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
       </c>
       <c r="AP26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5160,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5175,10 +5242,10 @@
         <v>8</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" t="n">
-        <v>0.372</v>
+        <v>0.381</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
@@ -5234,34 +5301,34 @@
         <v>36.7</v>
       </c>
       <c r="J27" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L27" t="n">
         <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.332</v>
+        <v>0.335</v>
       </c>
       <c r="O27" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="P27" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R27" t="n">
         <v>11.2</v>
       </c>
       <c r="S27" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T27" t="n">
         <v>45</v>
@@ -5270,37 +5337,37 @@
         <v>19.7</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
         <v>6.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="AB27" t="n">
         <v>101.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.6</v>
+        <v>-2</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>22</v>
@@ -5309,13 +5376,13 @@
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5333,13 +5400,13 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT27" t="n">
         <v>7</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -5413,46 +5480,46 @@
         <v>49</v>
       </c>
       <c r="I28" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.369</v>
+        <v>0.374</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.764</v>
+        <v>0.765</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>44</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
@@ -5464,7 +5531,7 @@
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA28" t="n">
         <v>20.1</v>
@@ -5473,13 +5540,13 @@
         <v>101.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -5494,25 +5561,25 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>11</v>
@@ -5521,37 +5588,37 @@
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC28" t="n">
         <v>9</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>15</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -5580,37 +5647,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.651</v>
+        <v>0.643</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J29" t="n">
-        <v>84.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="K29" t="n">
         <v>0.455</v>
       </c>
       <c r="L29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M29" t="n">
         <v>25.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O29" t="n">
         <v>19.6</v>
@@ -5619,10 +5686,10 @@
         <v>25.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R29" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S29" t="n">
         <v>30.5</v>
@@ -5634,10 +5701,10 @@
         <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W29" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X29" t="n">
         <v>4.5</v>
@@ -5646,19 +5713,19 @@
         <v>5.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>105.6</v>
+        <v>105.9</v>
       </c>
       <c r="AC29" t="n">
         <v>5</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
         <v>10</v>
@@ -5673,22 +5740,22 @@
         <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM29" t="n">
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5700,10 +5767,10 @@
         <v>4</v>
       </c>
       <c r="AR29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT29" t="n">
         <v>20</v>
@@ -5715,10 +5782,10 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5864,13 +5931,13 @@
         <v>17</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM30" t="n">
         <v>19</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>14</v>
@@ -5882,7 +5949,7 @@
         <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>23</v>
@@ -5891,7 +5958,7 @@
         <v>18</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
@@ -5912,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>6</v>
@@ -6034,7 +6101,7 @@
         <v>6</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6061,7 +6128,7 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>20</v>
@@ -6070,7 +6137,7 @@
         <v>10</v>
       </c>
       <c r="AT31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
@@ -6088,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-23-2014-15</t>
+          <t>2015-01-23</t>
         </is>
       </c>
     </row>
